--- a/biology/Botanique/Vieille_église_de_Petäjävesi/Vieille_église_de_Petäjävesi.xlsx
+++ b/biology/Botanique/Vieille_église_de_Petäjävesi/Vieille_église_de_Petäjävesi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vieille_%C3%A9glise_de_Pet%C3%A4j%C3%A4vesi</t>
+          <t>Vieille_église_de_Petäjävesi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La vieille église en bois de Petäjävesi est une église luthérienne finlandaise inscrite sur la liste du patrimoine mondial de l'UNESCO depuis 1994. Située sur la commune de Petäjävesi (centre-ouest de la Finlande), l'église se trouve à 31 kilomètres à l’ouest de Jyväskylä.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vieille_%C3%A9glise_de_Pet%C3%A4j%C3%A4vesi</t>
+          <t>Vieille_église_de_Petäjävesi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fut construite par le maître-charpentier Jaakko Klementinpoika Leppänen entre 1763 et 1765. Sa structure de base suit un plan en croix grecque (donc à branches égales), surmontée par un dôme octogonal. L'ensemble de l’édifice est entièrement fait de pin naturel, seulement un peu de couleur rouge ocre en ses voûtes intérieures, selon une tradition médiévale. Les voûtes sont garnies des initiales gravées des charpentiers ayant participé à sa construction.
 En 1821, le petit-fils du maître-charpentier, Erkki Jaakonpoika Leppänen, paracheva l’ouvrage en ajoutant un clocher surplombant un couloir d’accès et une sacristie à l’est. Les fenêtres furent aussi agrandies. L’église et le clocher sont couverts de tuiles triangulaires, également en bois de pin.
